--- a/preds/feature-importance.xlsx
+++ b/preds/feature-importance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RFC-II" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="1008-183014_svm_PI" sheetId="5" r:id="rId5"/>
     <sheet name="1008-183014_rfc_PI" sheetId="6" r:id="rId6"/>
     <sheet name="1008-183014_rfc_II" sheetId="7" r:id="rId7"/>
+    <sheet name="1119-224829_svc_PI" sheetId="8" r:id="rId8"/>
+    <sheet name="1119-224829_rfc_PI" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="146">
   <si>
     <t>feature_names</t>
   </si>
@@ -500,10 +502,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -919,7 +920,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1074,7 +1074,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,7 +1327,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1449,7 +1447,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3751,6 +3748,1127 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SVM:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> permutation-based method </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1119-224829_svc_PI'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>feature_importance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FAB8C1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'1008-183014_svm_PI'!$C$2:$C$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>5.1594634414825805E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2170666116745603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.1196392089608195E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7250930631010399E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2838052336602702E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8253767780333098E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.3411900591544196E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1724226279111499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.45789934579095E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.8165815763989701E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>9.4316579830087998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.0020262560059699E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.8328964358858304E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>8.2653062336312199E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'1008-183014_svm_PI'!$C$2:$C$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>5.1594634414825805E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2170666116745603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.1196392089608195E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7250930631010399E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2838052336602702E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.8253767780333098E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.3411900591544196E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1724226279111499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.45789934579095E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.8165815763989701E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>9.4316579830087998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.0020262560059699E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.8328964358858304E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>8.2653062336312199E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1119-224829_svc_PI'!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>ndvi_max</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ndvi_17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ndvi_41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ndvi_9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ndvi_45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ndvi_33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ndvi_avg</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ndvi_49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>blue_1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nir_21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nir_29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ndvi_53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>nir_25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>nir_33</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1119-224829_svc_PI'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.6565685778324098E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5381389631986095E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2362085170992698E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6549056467355898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2572482105415299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8783891258766599E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.60653604222399E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9942881931892593E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4759598004483004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4036584484130398E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0276914178295704E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8107873617237304E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5505024943967004E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7985684332297399E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE17-4224-BE85-B4DFD22CD4F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="231791672"/>
+        <c:axId val="231784784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="231791672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231784784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="231784784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231791672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RFC:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> permutation-based method </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DEC6F6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'1008-183014_rfc_PI'!$C$2:$C$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>1.5237132375277E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.9069679382734503E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.05668429133671E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.84473377532529E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.52371323752786E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9877397984498003E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.6395157061826603E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.00882723833578E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.09934399584911E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0888899656836401E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6.4300372176492103E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.08478250530199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.2666698970397495E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.08478250530202E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.71835736037471E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.71835736037471E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'1008-183014_rfc_PI'!$C$2:$C$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>1.5237132375277E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.9069679382734503E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.05668429133671E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.84473377532529E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.52371323752786E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.9877397984498003E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.6395157061826603E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.00882723833578E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.09934399584911E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0888899656836401E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6.4300372176492103E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.08478250530199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.2666698970397495E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.08478250530202E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.71835736037471E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.71835736037471E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1119-224829_rfc_PI'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>nir_17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nir_25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nir_9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nir_21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nir_std</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ndvi_max</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ndvi_diff_14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>nir_33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ndvi_diff_28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nir_avg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nir_29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ndvi_33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ndvi_diff_52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ndvi_9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ndvi_13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ndvi_17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1119-224829_rfc_PI'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.9246619911792301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9342057696478903E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3625189791049102E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3480587086978697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2490781577615398E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0177138312486403E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8586508567710403E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7429686935145602E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5839057190369499E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2513194996746297E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.19347841804642E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.19347841804642E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0344154435687897E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6150676017641498E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.48492516810066E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2969416528089101E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A990-4E3F-8E27-D90F40E32FB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="231791672"/>
+        <c:axId val="231784784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="231791672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231784784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="231784784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231791672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3985,6 +5103,83 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6501,6 +7696,1012 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7193,6 +9394,80 @@
       <xdr:colOff>333376</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288926</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7492,10 +9767,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -7721,10 +9996,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -7766,10 +10041,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -8064,7 +10339,7 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -8072,7 +10347,7 @@
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
       <c r="C5">
@@ -8083,10 +10358,10 @@
       <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>-3.7831021437573197E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>8.8272383354359702E-5</v>
       </c>
     </row>
@@ -8094,7 +10369,7 @@
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
       <c r="C7">
@@ -8105,7 +10380,7 @@
       <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
       <c r="C8">
@@ -8116,10 +10391,10 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
     </row>
@@ -8127,10 +10402,10 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -8138,7 +10413,7 @@
       <c r="A11" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C11">
@@ -8152,7 +10427,7 @@
       <c r="B12">
         <v>2.1437578814629201E-4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>-5.0441361916764197E-5</v>
       </c>
     </row>
@@ -8171,10 +10446,10 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
     </row>
@@ -8182,10 +10457,10 @@
       <c r="A15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
     </row>
@@ -8193,10 +10468,10 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
     </row>
@@ -8226,7 +10501,7 @@
       <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
       <c r="C19">
@@ -8240,7 +10515,7 @@
       <c r="B20">
         <v>2.7742749054229202E-4</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
     </row>
@@ -8248,7 +10523,7 @@
       <c r="A21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
       <c r="C21">
@@ -8259,7 +10534,7 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C22">
@@ -8281,7 +10556,7 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
       <c r="C24">
@@ -8292,7 +10567,7 @@
       <c r="A25" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
       <c r="C25">
@@ -8303,7 +10578,7 @@
       <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
       <c r="C26">
@@ -8314,7 +10589,7 @@
       <c r="A27" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
       <c r="C27">
@@ -8325,10 +10600,10 @@
       <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -8339,7 +10614,7 @@
       <c r="B29">
         <v>1.13493064312741E-4</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -8358,7 +10633,7 @@
       <c r="A31" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
       <c r="C31">
@@ -8369,7 +10644,7 @@
       <c r="A32" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>-6.3051702395955299E-5</v>
       </c>
       <c r="C32">
@@ -8380,7 +10655,7 @@
       <c r="A33" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
       <c r="C33">
@@ -8391,7 +10666,7 @@
       <c r="A34" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
       <c r="C34">
@@ -8402,10 +10677,10 @@
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -8446,7 +10721,7 @@
       <c r="A39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C39">
@@ -8479,7 +10754,7 @@
       <c r="A42" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
       <c r="C42">
@@ -8490,7 +10765,7 @@
       <c r="A43" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
       <c r="C43">
@@ -8501,7 +10776,7 @@
       <c r="A44" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
       <c r="C44">
@@ -8523,7 +10798,7 @@
       <c r="A46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
       <c r="C46">
@@ -8545,7 +10820,7 @@
       <c r="A48" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
       <c r="C48">
@@ -8567,7 +10842,7 @@
       <c r="A50" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>1.2610340479191E-5</v>
       </c>
       <c r="C50">
@@ -8600,7 +10875,7 @@
       <c r="A53" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
       <c r="C53">
@@ -8611,7 +10886,7 @@
       <c r="A54" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
       <c r="C54">
@@ -8644,7 +10919,7 @@
       <c r="A57" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
       <c r="C57">
@@ -8655,7 +10930,7 @@
       <c r="A58" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
       <c r="C58">
@@ -8669,7 +10944,7 @@
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>1.2610340479191E-5</v>
       </c>
     </row>
@@ -8710,7 +10985,7 @@
       <c r="A63" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
       <c r="C63">
@@ -8768,7 +11043,7 @@
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
     </row>
@@ -8779,7 +11054,7 @@
       <c r="B69">
         <v>0</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>1.2610340479191E-5</v>
       </c>
     </row>
@@ -8790,7 +11065,7 @@
       <c r="B70">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>1.2610340479191E-5</v>
       </c>
     </row>
@@ -8798,7 +11073,7 @@
       <c r="A71" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
       <c r="C71">
@@ -8812,7 +11087,7 @@
       <c r="B72">
         <v>0</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
     </row>
@@ -8820,7 +11095,7 @@
       <c r="A73" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C73">
@@ -8831,7 +11106,7 @@
       <c r="A74" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
       <c r="C74">
@@ -8842,7 +11117,7 @@
       <c r="A75" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>1.2610340479191E-5</v>
       </c>
       <c r="C75">
@@ -8889,7 +11164,7 @@
       <c r="B79">
         <v>1.8915510718791001E-4</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
     </row>
@@ -8908,10 +11183,10 @@
       <c r="A81" t="s">
         <v>58</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>-2.52206809583599E-5</v>
       </c>
     </row>
@@ -8919,10 +11194,10 @@
       <c r="A82" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>-6.3051702395955299E-5</v>
       </c>
     </row>
@@ -8933,7 +11208,7 @@
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>1.2610340479191E-5</v>
       </c>
     </row>
@@ -8966,7 +11241,7 @@
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -8988,7 +11263,7 @@
       <c r="B88">
         <v>0</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
     </row>
@@ -8999,7 +11274,7 @@
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="1">
         <v>1.2610340479191E-5</v>
       </c>
     </row>
@@ -9054,7 +11329,7 @@
       <c r="B94">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>-7.5662042875146394E-5</v>
       </c>
     </row>
@@ -9073,10 +11348,10 @@
       <c r="A96" t="s">
         <v>63</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="1">
         <v>5.0441361916786498E-5</v>
       </c>
     </row>
@@ -9084,7 +11359,7 @@
       <c r="A97" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>1.2610340479191E-5</v>
       </c>
       <c r="C97">
@@ -9095,7 +11370,7 @@
       <c r="A98" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C98">
@@ -9120,7 +11395,7 @@
       <c r="B100">
         <v>1.13493064312741E-4</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
     </row>
@@ -9139,7 +11414,7 @@
       <c r="A102" t="s">
         <v>79</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
       <c r="C102">
@@ -9150,7 +11425,7 @@
       <c r="A103" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>6.3051702395977498E-5</v>
       </c>
       <c r="C103">
@@ -9161,7 +11436,7 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>1.2610340479191E-5</v>
       </c>
       <c r="C104">
@@ -9172,7 +11447,7 @@
       <c r="A105" t="s">
         <v>129</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
       <c r="C105">
@@ -9208,7 +11483,7 @@
       <c r="B108">
         <v>1.13493064312764E-4</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -9241,7 +11516,7 @@
       <c r="B111">
         <v>1.76544766708719E-4</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
     </row>
@@ -9260,7 +11535,7 @@
       <c r="A113" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
       <c r="C113">
@@ -9271,7 +11546,7 @@
       <c r="A114" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>1.2610340479191E-5</v>
       </c>
       <c r="C114">
@@ -9304,7 +11579,7 @@
       <c r="A117" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>1.2610340479191E-5</v>
       </c>
       <c r="C117">
@@ -9315,7 +11590,7 @@
       <c r="A118" t="s">
         <v>25</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C118">
@@ -9326,7 +11601,7 @@
       <c r="A119" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C119">
@@ -9337,7 +11612,7 @@
       <c r="A120" t="s">
         <v>100</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
       <c r="C120">
@@ -9348,10 +11623,10 @@
       <c r="A121" t="s">
         <v>87</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
     </row>
@@ -9359,7 +11634,7 @@
       <c r="A122" t="s">
         <v>112</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
       <c r="C122">
@@ -9373,7 +11648,7 @@
       <c r="B123">
         <v>2.39596469104697E-4</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
     </row>
@@ -9381,10 +11656,10 @@
       <c r="A124" t="s">
         <v>61</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
     </row>
@@ -9392,10 +11667,10 @@
       <c r="A125" t="s">
         <v>48</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -9403,10 +11678,10 @@
       <c r="A126" t="s">
         <v>84</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="1">
         <v>-6.3051702395955299E-5</v>
       </c>
     </row>
@@ -9417,7 +11692,7 @@
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
     </row>
@@ -9425,7 +11700,7 @@
       <c r="A128" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
       <c r="C128">
@@ -9439,7 +11714,7 @@
       <c r="B129">
         <v>0</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -9447,10 +11722,10 @@
       <c r="A130" t="s">
         <v>136</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -9491,7 +11766,7 @@
       <c r="A134" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>7.5662042875168607E-5</v>
       </c>
       <c r="C134">
@@ -9513,10 +11788,10 @@
       <c r="A136" t="s">
         <v>113</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
     </row>
@@ -10130,7 +12405,7 @@
       <c r="B52">
         <v>2.90037831021461E-4</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>9.4367147207446902E-5</v>
       </c>
     </row>
@@ -10141,7 +12416,7 @@
       <c r="B53">
         <v>2.7742749054227001E-4</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>8.5527490329481698E-5</v>
       </c>
     </row>
@@ -10185,7 +12460,7 @@
       <c r="B57">
         <v>2.26986128625483E-4</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>9.4367147207440898E-5</v>
       </c>
     </row>
@@ -10207,7 +12482,7 @@
       <c r="B59">
         <v>2.1437578814627E-4</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>6.4300372176479106E-5</v>
       </c>
     </row>
@@ -10240,7 +12515,7 @@
       <c r="B62">
         <v>1.8915510718786599E-4</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>6.9069679382734503E-5</v>
       </c>
     </row>
@@ -10251,7 +12526,7 @@
       <c r="B63">
         <v>1.8915510718786599E-4</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -10262,7 +12537,7 @@
       <c r="B64">
         <v>1.7654476670869699E-4</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>9.2666698970379294E-5</v>
       </c>
     </row>
@@ -10306,7 +12581,7 @@
       <c r="B68">
         <v>1.63934426229506E-4</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>8.5527490329475098E-5</v>
       </c>
     </row>
@@ -10317,7 +12592,7 @@
       <c r="B69">
         <v>1.6393442622948299E-4</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -10328,7 +12603,7 @@
       <c r="B70">
         <v>1.51324085750292E-4</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>6.4300372176444195E-5</v>
       </c>
     </row>
@@ -10339,7 +12614,7 @@
       <c r="B71">
         <v>1.51324085750292E-4</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -10350,7 +12625,7 @@
       <c r="B72">
         <v>1.51324085750292E-4</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -10383,7 +12658,7 @@
       <c r="B75">
         <v>1.3871374527110099E-4</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -10405,7 +12680,7 @@
       <c r="B77">
         <v>1.2610340479191E-4</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -10416,7 +12691,7 @@
       <c r="B78">
         <v>1.2610340479191E-4</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <v>7.9754795968925898E-5</v>
       </c>
     </row>
@@ -10460,7 +12735,7 @@
       <c r="B82">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>8.3647535696214595E-5</v>
       </c>
     </row>
@@ -10471,7 +12746,7 @@
       <c r="B83">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10482,7 +12757,7 @@
       <c r="B84">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -10504,7 +12779,7 @@
       <c r="B86">
         <v>1.00882723833528E-4</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <v>6.4300372176444195E-5</v>
       </c>
     </row>
@@ -10512,7 +12787,7 @@
       <c r="A87" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>8.8272383354359702E-5</v>
       </c>
       <c r="C87">
@@ -10523,10 +12798,10 @@
       <c r="A88" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -10534,10 +12809,10 @@
       <c r="A89" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="1">
         <v>6.4300372176444195E-5</v>
       </c>
     </row>
@@ -10545,10 +12820,10 @@
       <c r="A90" t="s">
         <v>43</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -10556,10 +12831,10 @@
       <c r="A91" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10567,10 +12842,10 @@
       <c r="A92" t="s">
         <v>21</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -10578,10 +12853,10 @@
       <c r="A93" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>8.3647535696214595E-5</v>
       </c>
     </row>
@@ -10589,10 +12864,10 @@
       <c r="A94" t="s">
         <v>36</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>5.6395157061777E-5</v>
       </c>
     </row>
@@ -10600,10 +12875,10 @@
       <c r="A95" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="1">
         <v>7.9754795968925898E-5</v>
       </c>
     </row>
@@ -10611,10 +12886,10 @@
       <c r="A96" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="1">
         <v>5.6395157061777E-5</v>
       </c>
     </row>
@@ -10622,7 +12897,7 @@
       <c r="A97" t="s">
         <v>61</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C97">
@@ -10633,7 +12908,7 @@
       <c r="A98" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C98">
@@ -10644,7 +12919,7 @@
       <c r="A99" t="s">
         <v>63</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>5.0441361916786498E-5</v>
       </c>
       <c r="C99">
@@ -10655,10 +12930,10 @@
       <c r="A100" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10666,7 +12941,7 @@
       <c r="A101" t="s">
         <v>73</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
       <c r="C101">
@@ -10677,10 +12952,10 @@
       <c r="A102" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10688,10 +12963,10 @@
       <c r="A103" t="s">
         <v>38</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10699,10 +12974,10 @@
       <c r="A104" t="s">
         <v>48</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10710,10 +12985,10 @@
       <c r="A105" t="s">
         <v>54</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="1">
         <v>7.3530288711783494E-5</v>
       </c>
     </row>
@@ -10721,10 +12996,10 @@
       <c r="A106" t="s">
         <v>136</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -10732,10 +13007,10 @@
       <c r="A107" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -10743,10 +13018,10 @@
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -10754,10 +13029,10 @@
       <c r="A109" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -10765,10 +13040,10 @@
       <c r="A110" t="s">
         <v>35</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10776,10 +13051,10 @@
       <c r="A111" t="s">
         <v>46</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10787,7 +13062,7 @@
       <c r="A112" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>1.2610340479191E-5</v>
       </c>
       <c r="C112">
@@ -10798,10 +13073,10 @@
       <c r="A113" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -10809,10 +13084,10 @@
       <c r="A114" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -10919,7 +13194,7 @@
       <c r="A124" t="s">
         <v>24</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
       <c r="C124">
@@ -10930,7 +13205,7 @@
       <c r="A125" t="s">
         <v>58</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>-2.52206809583599E-5</v>
       </c>
       <c r="C125">
@@ -10941,7 +13216,7 @@
       <c r="A126" t="s">
         <v>67</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
       <c r="C126">
@@ -10952,10 +13227,10 @@
       <c r="A127" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="1">
         <v>8.5527490329435796E-5</v>
       </c>
     </row>
@@ -10963,7 +13238,7 @@
       <c r="A128" t="s">
         <v>86</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
       <c r="C128">
@@ -10974,10 +13249,10 @@
       <c r="A129" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="1">
         <v>5.0441361916764299E-5</v>
       </c>
     </row>
@@ -10985,10 +13260,10 @@
       <c r="A130" t="s">
         <v>120</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>-5.0441361916764197E-5</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -10996,7 +13271,7 @@
       <c r="A131" t="s">
         <v>57</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>-6.3051702395955299E-5</v>
       </c>
       <c r="C131">
@@ -11007,7 +13282,7 @@
       <c r="A132" t="s">
         <v>84</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>-6.3051702395955299E-5</v>
       </c>
       <c r="C132">
@@ -11018,7 +13293,7 @@
       <c r="A133" t="s">
         <v>110</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>-7.5662042875146394E-5</v>
       </c>
       <c r="C133">
@@ -11032,7 +13307,7 @@
       <c r="B134">
         <v>-1.00882723833528E-4</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="1">
         <v>9.43671472073994E-5</v>
       </c>
     </row>
@@ -11054,7 +13329,7 @@
       <c r="B136">
         <v>-1.51324085750292E-4</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="1">
         <v>6.4300372176444195E-5</v>
       </c>
     </row>
@@ -11128,7 +13403,7 @@
       <c r="B3">
         <v>6.9356872635561995E-4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>6.9069679382734503E-5</v>
       </c>
     </row>
@@ -11172,7 +13447,7 @@
       <c r="B7">
         <v>2.5220680958390999E-4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>3.9877397984498003E-5</v>
       </c>
     </row>
@@ -11183,7 +13458,7 @@
       <c r="B8">
         <v>2.5220680958388798E-4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5.6395157061826603E-5</v>
       </c>
     </row>
@@ -11216,7 +13491,7 @@
       <c r="B11">
         <v>2.1437578814629201E-4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>3.0888899656836401E-5</v>
       </c>
     </row>
@@ -11227,7 +13502,7 @@
       <c r="B12">
         <v>2.1437578814629201E-4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>6.4300372176492103E-5</v>
       </c>
     </row>
@@ -11249,7 +13524,7 @@
       <c r="B14">
         <v>2.0176544766712301E-4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>9.2666698970397495E-5</v>
       </c>
     </row>
@@ -11271,7 +13546,7 @@
       <c r="B16">
         <v>2.01765447667101E-4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>4.71835736037471E-5</v>
       </c>
     </row>
@@ -11282,7 +13557,7 @@
       <c r="B17">
         <v>2.01765447667101E-4</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>4.71835736037471E-5</v>
       </c>
     </row>
@@ -11293,7 +13568,7 @@
       <c r="B18">
         <v>1.8915510718791001E-4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>5.6395157061826603E-5</v>
       </c>
     </row>
@@ -11304,7 +13579,7 @@
       <c r="B19">
         <v>1.8915510718791001E-4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>5.6395157061826603E-5</v>
       </c>
     </row>
@@ -11315,7 +13590,7 @@
       <c r="B20">
         <v>1.89155107187888E-4</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>3.9877397984498003E-5</v>
       </c>
     </row>
@@ -11337,7 +13612,7 @@
       <c r="B22">
         <v>1.6393442622948299E-4</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -11348,7 +13623,7 @@
       <c r="B23">
         <v>1.6393442622948299E-4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -11359,7 +13634,7 @@
       <c r="B24">
         <v>1.5132408575031499E-4</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>5.0441361916808697E-5</v>
       </c>
     </row>
@@ -11370,7 +13645,7 @@
       <c r="B25">
         <v>1.51324085750292E-4</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -11381,7 +13656,7 @@
       <c r="B26">
         <v>1.51324085750292E-4</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -11392,7 +13667,7 @@
       <c r="B27">
         <v>1.51324085750292E-4</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
     </row>
@@ -11403,7 +13678,7 @@
       <c r="B28">
         <v>1.3871374527110099E-4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11414,7 +13689,7 @@
       <c r="B29">
         <v>1.3871374527110099E-4</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -11425,7 +13700,7 @@
       <c r="B30">
         <v>1.3871374527110099E-4</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11436,7 +13711,7 @@
       <c r="B31">
         <v>1.2610340479191E-4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>5.6395157061777E-5</v>
       </c>
     </row>
@@ -11447,7 +13722,7 @@
       <c r="B32">
         <v>1.2610340479191E-4</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -11458,7 +13733,7 @@
       <c r="B33">
         <v>1.2610340479191E-4</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -11469,7 +13744,7 @@
       <c r="B34">
         <v>1.2610340479191E-4</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>5.6395157061777E-5</v>
       </c>
     </row>
@@ -11480,7 +13755,7 @@
       <c r="B35">
         <v>1.2610340479191E-4</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -11491,7 +13766,7 @@
       <c r="B36">
         <v>1.2610340479191E-4</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -11513,7 +13788,7 @@
       <c r="B38">
         <v>1.13493064312741E-4</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>9.2666698970379294E-5</v>
       </c>
     </row>
@@ -11524,7 +13799,7 @@
       <c r="B39">
         <v>1.13493064312741E-4</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>7.3530288711825398E-5</v>
       </c>
     </row>
@@ -11535,7 +13810,7 @@
       <c r="B40">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11546,7 +13821,7 @@
       <c r="B41">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11557,7 +13832,7 @@
       <c r="B42">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -11568,7 +13843,7 @@
       <c r="B43">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11579,7 +13854,7 @@
       <c r="B44">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -11590,7 +13865,7 @@
       <c r="B45">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -11601,7 +13876,7 @@
       <c r="B46">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11612,7 +13887,7 @@
       <c r="B47">
         <v>1.13493064312719E-4</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -11634,7 +13909,7 @@
       <c r="B49">
         <v>1.00882723833528E-4</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>6.4300372176444195E-5</v>
       </c>
     </row>
@@ -11645,7 +13920,7 @@
       <c r="B50">
         <v>1.00882723833528E-4</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>6.4300372176444195E-5</v>
       </c>
     </row>
@@ -11653,7 +13928,7 @@
       <c r="A51" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
       <c r="C51">
@@ -11664,10 +13939,10 @@
       <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>5.0441361916764299E-5</v>
       </c>
     </row>
@@ -11675,10 +13950,10 @@
       <c r="A53" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -11686,10 +13961,10 @@
       <c r="A54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -11697,10 +13972,10 @@
       <c r="A55" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -11708,10 +13983,10 @@
       <c r="A56" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>8.8272383354337503E-5</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>5.0441361916764299E-5</v>
       </c>
     </row>
@@ -11719,7 +13994,7 @@
       <c r="A57" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>7.5662042875168607E-5</v>
       </c>
       <c r="C57">
@@ -11730,10 +14005,10 @@
       <c r="A58" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>7.3530288711783494E-5</v>
       </c>
     </row>
@@ -11741,10 +14016,10 @@
       <c r="A59" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>9.2666698970346104E-5</v>
       </c>
     </row>
@@ -11752,10 +14027,10 @@
       <c r="A60" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>7.5662042875146394E-5</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11763,7 +14038,7 @@
       <c r="A61" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>6.3051702395977498E-5</v>
       </c>
       <c r="C61">
@@ -11774,7 +14049,7 @@
       <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C62">
@@ -11785,10 +14060,10 @@
       <c r="A63" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -11796,7 +14071,7 @@
       <c r="A64" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C64">
@@ -11807,7 +14082,7 @@
       <c r="A65" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C65">
@@ -11818,10 +14093,10 @@
       <c r="A66" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>5.6395157061777E-5</v>
       </c>
     </row>
@@ -11829,10 +14104,10 @@
       <c r="A67" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>7.9754795968925898E-5</v>
       </c>
     </row>
@@ -11840,7 +14115,7 @@
       <c r="A68" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C68">
@@ -11851,7 +14126,7 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
       <c r="C69">
@@ -11862,10 +14137,10 @@
       <c r="A70" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>6.3051702395955299E-5</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>7.9754795968925898E-5</v>
       </c>
     </row>
@@ -11873,10 +14148,10 @@
       <c r="A71" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11884,10 +14159,10 @@
       <c r="A72" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11895,10 +14170,10 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11906,10 +14181,10 @@
       <c r="A74" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11917,10 +14192,10 @@
       <c r="A75" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>7.3530288711783494E-5</v>
       </c>
     </row>
@@ -11928,10 +14203,10 @@
       <c r="A76" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -11939,10 +14214,10 @@
       <c r="A77" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11950,10 +14225,10 @@
       <c r="A78" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -11961,10 +14236,10 @@
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -11972,10 +14247,10 @@
       <c r="A80" t="s">
         <v>136</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -11983,10 +14258,10 @@
       <c r="A81" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -11994,10 +14269,10 @@
       <c r="A82" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12005,10 +14280,10 @@
       <c r="A83" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12016,10 +14291,10 @@
       <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <v>9.43671472073994E-5</v>
       </c>
     </row>
@@ -12027,10 +14302,10 @@
       <c r="A85" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12038,10 +14313,10 @@
       <c r="A86" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <v>6.4300372176444195E-5</v>
       </c>
     </row>
@@ -12049,10 +14324,10 @@
       <c r="A87" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12060,10 +14335,10 @@
       <c r="A88" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>3.7831021437573197E-5</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12071,10 +14346,10 @@
       <c r="A89" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12082,10 +14357,10 @@
       <c r="A90" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12093,10 +14368,10 @@
       <c r="A91" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12104,10 +14379,10 @@
       <c r="A92" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12115,10 +14390,10 @@
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12126,10 +14401,10 @@
       <c r="A94" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12137,10 +14412,10 @@
       <c r="A95" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="1">
         <v>5.0441361916764197E-5</v>
       </c>
     </row>
@@ -12148,7 +14423,7 @@
       <c r="A96" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>1.2610340479191E-5</v>
       </c>
       <c r="C96">
@@ -12159,10 +14434,10 @@
       <c r="A97" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -12170,10 +14445,10 @@
       <c r="A98" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -12181,10 +14456,10 @@
       <c r="A99" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -12192,10 +14467,10 @@
       <c r="A100" t="s">
         <v>108</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -12203,10 +14478,10 @@
       <c r="A101" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -12214,10 +14489,10 @@
       <c r="A102" t="s">
         <v>78</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>1.2610340479191E-5</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -12283,7 +14558,7 @@
       <c r="B108">
         <v>0</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -12305,7 +14580,7 @@
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="1">
         <v>6.9069679382734503E-5</v>
       </c>
     </row>
@@ -12492,7 +14767,7 @@
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="1">
         <v>3.9877397984462902E-5</v>
       </c>
     </row>
@@ -12500,10 +14775,10 @@
       <c r="A128" t="s">
         <v>22</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -12511,7 +14786,7 @@
       <c r="A129" t="s">
         <v>21</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
       <c r="C129">
@@ -12522,10 +14797,10 @@
       <c r="A130" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -12533,10 +14808,10 @@
       <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="1">
         <v>6.1777799313564001E-5</v>
       </c>
     </row>
@@ -12544,10 +14819,10 @@
       <c r="A132" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -12555,10 +14830,10 @@
       <c r="A133" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -12566,10 +14841,10 @@
       <c r="A134" t="s">
         <v>57</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="1">
         <v>2.5220680958382099E-5</v>
       </c>
     </row>
@@ -12577,10 +14852,10 @@
       <c r="A135" t="s">
         <v>84</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>-1.2610340479191E-5</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="1">
         <v>4.71835736036997E-5</v>
       </c>
     </row>
@@ -12588,10 +14863,10 @@
       <c r="A136" t="s">
         <v>115</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>-2.5220680958382099E-5</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12599,10 +14874,10 @@
       <c r="A137" t="s">
         <v>68</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>-3.7831021437573197E-5</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="1">
         <v>3.0888899656782001E-5</v>
       </c>
     </row>
@@ -12610,7 +14885,7 @@
       <c r="A138" t="s">
         <v>82</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>-6.3051702395955299E-5</v>
       </c>
       <c r="C138">
@@ -12630,8 +14905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13751,4 +16026,3072 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>9.6565685778324098E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.3874326155807501E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>7.5381389631986095E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.3484541365772101E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>3.2362085170992698E-2</v>
+      </c>
+      <c r="C4">
+        <v>7.6734866091658204E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>2.6549056467355898E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.9627653243822702E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>2.2572482105415299E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.4944822423816502E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1.8783891258766599E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.3081550578148799E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8">
+        <v>1.60653604222399E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.53060442454188E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9">
+        <v>8.9942881931892593E-3</v>
+      </c>
+      <c r="C9">
+        <v>4.9164919383990705E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>7.4759598004483004E-3</v>
+      </c>
+      <c r="C10">
+        <v>4.3525173720752397E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>7.4036584484130398E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.515640534828E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>7.0276914178295704E-3</v>
+      </c>
+      <c r="C12">
+        <v>8.8479841172891302E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>6.8107873617237304E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.46070205181684E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>6.5505024943967004E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.5510957189488E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>5.7985684332297399E-3</v>
+      </c>
+      <c r="C15">
+        <v>8.08224343141195E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>5.1912370761333596E-3</v>
+      </c>
+      <c r="C16">
+        <v>8.9303146014860105E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17">
+        <v>3.06557732629604E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.4002961621585399E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>2.5450075916420198E-3</v>
+      </c>
+      <c r="C18">
+        <v>9.8010343158589307E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>2.0533583978020698E-3</v>
+      </c>
+      <c r="C19">
+        <v>4.9588397655936497E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>1.9955173161738601E-3</v>
+      </c>
+      <c r="C20">
+        <v>1.0749341357846E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1.9665967753597501E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.2504340847945198E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>1.7496927192539101E-3</v>
+      </c>
+      <c r="C22">
+        <v>2.3045878751366E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1.5906297447762601E-3</v>
+      </c>
+      <c r="C23">
+        <v>1.3869804130757499E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24">
+        <v>1.5472489335551099E-3</v>
+      </c>
+      <c r="C24">
+        <v>3.1878255635958903E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25">
+        <v>1.4894078519268801E-3</v>
+      </c>
+      <c r="C25">
+        <v>3.7317584847266198E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26">
+        <v>1.3592654182633601E-3</v>
+      </c>
+      <c r="C26">
+        <v>4.4428577820076099E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27">
+        <v>1.22912298459985E-3</v>
+      </c>
+      <c r="C27">
+        <v>6.7515682336367097E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>9.6883811727284104E-4</v>
+      </c>
+      <c r="C28">
+        <v>3.1548585394074901E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>8.9653676523755396E-4</v>
+      </c>
+      <c r="C29">
+        <v>1.1747579212835399E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>8.5315595401638203E-4</v>
+      </c>
+      <c r="C30">
+        <v>1.15682163256458E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8.2423541320226698E-4</v>
+      </c>
+      <c r="C31">
+        <v>4.2059256951051098E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7.9531487238815302E-4</v>
+      </c>
+      <c r="C32">
+        <v>2.6268385690963498E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>7.6639433157403797E-4</v>
+      </c>
+      <c r="C33">
+        <v>1.08210755166629E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>7.3747379075992303E-4</v>
+      </c>
+      <c r="C34">
+        <v>3.8367433045831102E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35">
+        <v>7.2301352035286605E-4</v>
+      </c>
+      <c r="C35">
+        <v>7.1574686838349702E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <v>6.94092979538751E-4</v>
+      </c>
+      <c r="C36">
+        <v>2.12521704239748E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37">
+        <v>6.94092979538751E-4</v>
+      </c>
+      <c r="C37">
+        <v>2.61086979759506E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38">
+        <v>5.9287108668934995E-4</v>
+      </c>
+      <c r="C38">
+        <v>5.5138965989266298E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>5.9287108668934995E-4</v>
+      </c>
+      <c r="C39">
+        <v>1.4746640195482699E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40">
+        <v>5.3503000506114305E-4</v>
+      </c>
+      <c r="C40">
+        <v>1.95807225852773E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>5.0610946424700599E-4</v>
+      </c>
+      <c r="C41">
+        <v>1.44602704070573E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <v>4.6272865302583402E-4</v>
+      </c>
+      <c r="C42">
+        <v>1.26061714801269E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43">
+        <v>4.6272865302583402E-4</v>
+      </c>
+      <c r="C43">
+        <v>3.0538228735368201E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44">
+        <v>4.1934784180466198E-4</v>
+      </c>
+      <c r="C44">
+        <v>3.2783700524199801E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45">
+        <v>3.7596703058351201E-4</v>
+      </c>
+      <c r="C45">
+        <v>4.1759899004245501E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46">
+        <v>2.7474513773408901E-4</v>
+      </c>
+      <c r="C46">
+        <v>2.9775519169944302E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>2.7474513773408901E-4</v>
+      </c>
+      <c r="C47">
+        <v>2.16421510333258E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>2.7474513773408901E-4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5.4105377583314602E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>2.4582459691999603E-4</v>
+      </c>
+      <c r="C49">
+        <v>5.1653737544621802E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>2.4582459691997402E-4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5.7841081628229299E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51">
+        <v>2.4582459691997402E-4</v>
+      </c>
+      <c r="C51">
+        <v>1.08210755166629E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>2.3136432651291701E-4</v>
+      </c>
+      <c r="C52">
+        <v>1.4746640195482699E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53">
+        <v>2.3136432651291701E-4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7.0840568079916095E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54">
+        <v>2.1690405610585899E-4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>9.1454780136462601E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>2.1690405610585899E-4</v>
+      </c>
+      <c r="C55">
+        <v>1.2933659041283399E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <v>1.87983515291745E-4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5.7841081628229299E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>1.87983515291745E-4</v>
+      </c>
+      <c r="C57">
+        <v>1.08210755166629E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58">
+        <v>1.87983515291745E-4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7.3733200977413606E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59">
+        <v>1.7352324488468699E-4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7.3733200977413606E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60">
+        <v>1.5906297447763001E-4</v>
+      </c>
+      <c r="C60">
+        <v>1.54393438681683E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61">
+        <v>1.5906297447763001E-4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7.0840568079916095E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62">
+        <v>1.5906297447763001E-4</v>
+      </c>
+      <c r="C62">
+        <v>1.4019752317017E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63">
+        <v>1.5906297447763001E-4</v>
+      </c>
+      <c r="C63">
+        <v>2.3936006589903299E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1.44602704070573E-4</v>
+      </c>
+      <c r="C64">
+        <v>2.37606488687091E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65">
+        <v>1.44602704070573E-4</v>
+      </c>
+      <c r="C65">
+        <v>1.3718217020469299E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66">
+        <v>1.3014243366351501E-4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>8.4317141130006295E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67">
+        <v>1.3014243366351501E-4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2.8920540814114599E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68">
+        <v>1.15682163256458E-4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7.3733200977413606E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>1.01221892849423E-4</v>
+      </c>
+      <c r="C69">
+        <v>6.5567401048396295E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70">
+        <v>1.01221892849423E-4</v>
+      </c>
+      <c r="C70">
+        <v>3.1878255635959E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1.0122189284940101E-4</v>
+      </c>
+      <c r="C71">
+        <v>1.6863428226001199E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72">
+        <v>1.0122189284940101E-4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>9.8074325545883894E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73">
+        <v>1.0122189284940101E-4</v>
+      </c>
+      <c r="C73">
+        <v>1.6863428226001199E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7.2301352035308806E-5</v>
+      </c>
+      <c r="C74">
+        <v>2.3760648868705701E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="1">
+        <v>7.2301352035286594E-5</v>
+      </c>
+      <c r="C75">
+        <v>1.44602704070573E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="1">
+        <v>7.2301352035286594E-5</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6.4668295206417401E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1">
+        <v>7.2301352035286594E-5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7.9202162895697099E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5.7841081628251498E-5</v>
+      </c>
+      <c r="C78">
+        <v>2.7206836414179298E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="1">
+        <v>5.7841081628229299E-5</v>
+      </c>
+      <c r="C79">
+        <v>2.06533972338752E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4.3380811221171903E-5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5.7841081628229299E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4.3380811221171903E-5</v>
+      </c>
+      <c r="C81">
+        <v>1.26061714801269E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2.8920540814114599E-5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>8.6761622442343902E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2.8920540814114599E-5</v>
+      </c>
+      <c r="C83">
+        <v>1.1747579212835399E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2.8920540814114599E-5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3.5420284039958E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1.4460270407101699E-5</v>
+      </c>
+      <c r="C85">
+        <v>4.4663278754911699E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1.4460270407057299E-5</v>
+      </c>
+      <c r="C86">
+        <v>1.6102275649859801E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1.4460270407057299E-5</v>
+      </c>
+      <c r="C87">
+        <v>1.06260852119874E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1.12008772936377E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="1">
+        <v>-1.44602704070351E-5</v>
+      </c>
+      <c r="C98">
+        <v>2.5623664444606001E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="1">
+        <v>-1.4460270407057299E-5</v>
+      </c>
+      <c r="C99">
+        <v>1.4019752317017E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="1">
+        <v>-1.4460270407057299E-5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2.8920540814114599E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" s="1">
+        <v>-2.8920540814114599E-5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3.5420284039958E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="1">
+        <v>-2.8920540814114599E-5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3.5420284039958E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="1">
+        <v>-5.7841081628229299E-5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>8.4317141130006295E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="1">
+        <v>-7.2301352035264395E-5</v>
+      </c>
+      <c r="C104">
+        <v>2.1930085876801101E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="1">
+        <v>-8.6761622442321703E-5</v>
+      </c>
+      <c r="C105">
+        <v>4.4896752790859101E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106">
+        <v>-1.01221892849356E-4</v>
+      </c>
+      <c r="C106">
+        <v>4.8522772715094202E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107">
+        <v>-1.01221892849379E-4</v>
+      </c>
+      <c r="C107">
+        <v>1.0821075516659E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108">
+        <v>-1.3014243366344901E-4</v>
+      </c>
+      <c r="C108">
+        <v>2.30458787513648E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109">
+        <v>-1.7352324488466501E-4</v>
+      </c>
+      <c r="C109">
+        <v>1.8630755153963699E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110">
+        <v>-2.0244378569873601E-4</v>
+      </c>
+      <c r="C110">
+        <v>3.2463226549983999E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111">
+        <v>-2.3136432651287201E-4</v>
+      </c>
+      <c r="C111">
+        <v>3.4944822423811601E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112">
+        <v>-2.6028486732696503E-4</v>
+      </c>
+      <c r="C112">
+        <v>1.48877595849676E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113">
+        <v>-2.7474513773402201E-4</v>
+      </c>
+      <c r="C113">
+        <v>5.55168934146542E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114">
+        <v>-3.03665678548137E-4</v>
+      </c>
+      <c r="C114">
+        <v>1.9614865109171499E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115">
+        <v>-3.3258621936225102E-4</v>
+      </c>
+      <c r="C115">
+        <v>1.3409903109671699E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116">
+        <v>-4.6272865302576701E-4</v>
+      </c>
+      <c r="C116">
+        <v>4.4002961621581799E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117">
+        <v>-4.9164919383983799E-4</v>
+      </c>
+      <c r="C117">
+        <v>1.54393438681683E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118">
+        <v>-5.3503000506103203E-4</v>
+      </c>
+      <c r="C118">
+        <v>5.4413672828360397E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119">
+        <v>-6.0733135709629602E-4</v>
+      </c>
+      <c r="C119">
+        <v>2.7664126194360401E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120">
+        <v>-6.5071216831749103E-4</v>
+      </c>
+      <c r="C120">
+        <v>2.5459933282708701E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121">
+        <v>-6.7963270913158299E-4</v>
+      </c>
+      <c r="C121">
+        <v>3.2204551299719699E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122">
+        <v>-6.9409297953863997E-4</v>
+      </c>
+      <c r="C122">
+        <v>1.1747579212835399E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123">
+        <v>-7.6639433157392695E-4</v>
+      </c>
+      <c r="C123" s="1">
+        <v>9.8074325545883894E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124">
+        <v>-8.6761622442335098E-4</v>
+      </c>
+      <c r="C124">
+        <v>5.8737896064172898E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125">
+        <v>-9.1099703564450003E-4</v>
+      </c>
+      <c r="C125">
+        <v>1.1747579212835399E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126">
+        <v>-1.0122189284939001E-3</v>
+      </c>
+      <c r="C126">
+        <v>3.1349119208560301E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127">
+        <v>-1.5327886631479599E-3</v>
+      </c>
+      <c r="C127">
+        <v>4.2993474795225897E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>-1.7352324488467601E-3</v>
+      </c>
+      <c r="C128">
+        <v>3.3290042464671798E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>-1.7641529896608801E-3</v>
+      </c>
+      <c r="C129">
+        <v>5.1450934493986196E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130">
+        <v>-1.9955173161737999E-3</v>
+      </c>
+      <c r="C130">
+        <v>2.4454536223394698E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>104</v>
+      </c>
+      <c r="B131">
+        <v>-2.06781866820906E-3</v>
+      </c>
+      <c r="C131">
+        <v>7.1223254174099303E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>95</v>
+      </c>
+      <c r="B132">
+        <v>-2.0822789386161001E-3</v>
+      </c>
+      <c r="C132">
+        <v>1.08635037067417E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>74</v>
+      </c>
+      <c r="B133">
+        <v>-2.0967392090231502E-3</v>
+      </c>
+      <c r="C133">
+        <v>1.37790519841763E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134">
+        <v>-2.94989516303949E-3</v>
+      </c>
+      <c r="C134">
+        <v>7.3931446930310704E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135">
+        <v>-3.4993854385076502E-3</v>
+      </c>
+      <c r="C135">
+        <v>2.2680047923301101E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136">
+        <v>-4.4248427445592702E-3</v>
+      </c>
+      <c r="C136">
+        <v>1.01675342816844E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137">
+        <v>-4.56944544862984E-3</v>
+      </c>
+      <c r="C137">
+        <v>4.04887571397567E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>84</v>
+      </c>
+      <c r="B138">
+        <v>-4.6417468006651101E-3</v>
+      </c>
+      <c r="C138">
+        <v>3.04696804362718E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C138"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1.9246619911792301E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.15537470062546E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>9.9342057696478903E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.1428188740353899E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>6.3625189791049102E-3</v>
+      </c>
+      <c r="C4">
+        <v>8.9607018349098597E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>6.3480587086978697E-3</v>
+      </c>
+      <c r="C5">
+        <v>8.5596984090513203E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>5.2490781577615398E-3</v>
+      </c>
+      <c r="C6">
+        <v>9.14090413088233E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7">
+        <v>5.0177138312486403E-3</v>
+      </c>
+      <c r="C7">
+        <v>7.2388061663127099E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>4.8586508567710403E-3</v>
+      </c>
+      <c r="C8">
+        <v>4.1256142340214899E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4.7429686935145602E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.2963492511273203E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>4.5839057190369499E-3</v>
+      </c>
+      <c r="C10">
+        <v>5.6116283455811395E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4.2513194996746297E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.2349782067989899E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>4.19347841804642E-3</v>
+      </c>
+      <c r="C12">
+        <v>7.8805157072886598E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>4.19347841804642E-3</v>
+      </c>
+      <c r="C13">
+        <v>8.3319269992846096E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>4.0344154435687897E-3</v>
+      </c>
+      <c r="C14">
+        <v>5.4375231514606603E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15">
+        <v>3.6150676017641498E-3</v>
+      </c>
+      <c r="C15">
+        <v>9.1225856673197298E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3.48492516810066E-3</v>
+      </c>
+      <c r="C16">
+        <v>8.7529439377754604E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>3.2969416528089101E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.6318031604500299E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2.9354348926325202E-3</v>
+      </c>
+      <c r="C18">
+        <v>2.6506113483948E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>2.6173089436772601E-3</v>
+      </c>
+      <c r="C19">
+        <v>2.7206836414182199E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>2.4293254283855202E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.4116258484264201E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>2.2413419130937699E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.7300780084728303E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>2.1835008314655402E-3</v>
+      </c>
+      <c r="C22">
+        <v>9.0350657808187099E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>1.9087556937314499E-3</v>
+      </c>
+      <c r="C23">
+        <v>4.6318031604505102E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>1.8942954233243899E-3</v>
+      </c>
+      <c r="C24">
+        <v>2.4794198827970601E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>1.8653748825103E-3</v>
+      </c>
+      <c r="C25">
+        <v>3.8638968161049201E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26">
+        <v>1.8219940712891501E-3</v>
+      </c>
+      <c r="C26">
+        <v>6.2931256299583196E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <v>1.6918516376256401E-3</v>
+      </c>
+      <c r="C27">
+        <v>5.4221193722079903E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>1.6918516376256099E-3</v>
+      </c>
+      <c r="C28">
+        <v>2.52951423389984E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>1.4749475815197799E-3</v>
+      </c>
+      <c r="C29">
+        <v>3.3164181740088101E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>1.4171064998915199E-3</v>
+      </c>
+      <c r="C30">
+        <v>1.68634282259978E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>1.3737256886703999E-3</v>
+      </c>
+      <c r="C31">
+        <v>2.1448047103157301E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>1.31588460704217E-3</v>
+      </c>
+      <c r="C32">
+        <v>5.7913337848311704E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1.3014243366350901E-3</v>
+      </c>
+      <c r="C33">
+        <v>5.8559631932082897E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>1.28696406622805E-3</v>
+      </c>
+      <c r="C34">
+        <v>3.6696052463157901E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>1.2291229845997999E-3</v>
+      </c>
+      <c r="C35">
+        <v>4.01256219377066E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36">
+        <v>1.17128190297159E-3</v>
+      </c>
+      <c r="C36">
+        <v>4.5129018969927199E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>1.0266791989010399E-3</v>
+      </c>
+      <c r="C37">
+        <v>2.0140826082253101E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38">
+        <v>1.0266791989010399E-3</v>
+      </c>
+      <c r="C38">
+        <v>2.9422297663762501E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39">
+        <v>9.6883811727284104E-4</v>
+      </c>
+      <c r="C39">
+        <v>3.8962312443953801E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>9.6883811727284104E-4</v>
+      </c>
+      <c r="C40">
+        <v>1.6231613274994401E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41">
+        <v>9.3991757645870398E-4</v>
+      </c>
+      <c r="C41">
+        <v>2.9279815966039898E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42">
+        <v>8.5315595401636002E-4</v>
+      </c>
+      <c r="C42">
+        <v>4.8909072446786002E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>7.9531487238813003E-4</v>
+      </c>
+      <c r="C43">
+        <v>1.1059980146611601E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44">
+        <v>7.3747379075992303E-4</v>
+      </c>
+      <c r="C44">
+        <v>3.08108969021236E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>6.5071216831757896E-4</v>
+      </c>
+      <c r="C45">
+        <v>4.4097898002971999E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>6.0733135709640704E-4</v>
+      </c>
+      <c r="C46">
+        <v>3.25275739402864E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>6.0733135709640704E-4</v>
+      </c>
+      <c r="C47">
+        <v>1.6863428226001199E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>6.0733135709640704E-4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5.7841081628229299E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49">
+        <v>6.0733135709640704E-4</v>
+      </c>
+      <c r="C49">
+        <v>3.3164181740091901E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50">
+        <v>5.3503000506112104E-4</v>
+      </c>
+      <c r="C50">
+        <v>3.0538228735368201E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51">
+        <v>5.0610946424700599E-4</v>
+      </c>
+      <c r="C51">
+        <v>4.6408232335715398E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52">
+        <v>4.77188923432891E-4</v>
+      </c>
+      <c r="C52">
+        <v>3.7317584847269402E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53">
+        <v>4.7718892343286899E-4</v>
+      </c>
+      <c r="C53">
+        <v>6.3460655794928802E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>4.3380811221171902E-4</v>
+      </c>
+      <c r="C54">
+        <v>1.8853885923513701E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55">
+        <v>4.1934784180466198E-4</v>
+      </c>
+      <c r="C55">
+        <v>1.4019752317017E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56">
+        <v>4.04887571397605E-4</v>
+      </c>
+      <c r="C56">
+        <v>4.37647196888794E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57">
+        <v>3.7596703058349001E-4</v>
+      </c>
+      <c r="C57">
+        <v>2.83362272319664E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58">
+        <v>3.3258621936231797E-4</v>
+      </c>
+      <c r="C58">
+        <v>1.4887759584972099E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59">
+        <v>3.1812594895526099E-4</v>
+      </c>
+      <c r="C59">
+        <v>4.1809940842460198E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>3.0366567854820298E-4</v>
+      </c>
+      <c r="C60">
+        <v>4.6272865302583402E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61">
+        <v>3.0366567854820298E-4</v>
+      </c>
+      <c r="C61">
+        <v>4.3477106148141499E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>2.60284867327031E-4</v>
+      </c>
+      <c r="C62">
+        <v>3.3164181740091901E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63">
+        <v>2.3136432651291701E-4</v>
+      </c>
+      <c r="C63">
+        <v>1.4019752317017E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64">
+        <v>2.3136432651291701E-4</v>
+      </c>
+      <c r="C64">
+        <v>6.5535502529825496E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65">
+        <v>1.87983515291745E-4</v>
+      </c>
+      <c r="C65">
+        <v>1.3409903109675599E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66">
+        <v>1.7352324488468699E-4</v>
+      </c>
+      <c r="C66">
+        <v>2.8409923656119501E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67">
+        <v>1.7352324488468699E-4</v>
+      </c>
+      <c r="C67">
+        <v>4.2307103863288299E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68">
+        <v>1.7352324488468699E-4</v>
+      </c>
+      <c r="C68">
+        <v>1.1747579212835399E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69">
+        <v>1.44602704070573E-4</v>
+      </c>
+      <c r="C69">
+        <v>3.6866600488706799E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70">
+        <v>1.44602704070573E-4</v>
+      </c>
+      <c r="C70">
+        <v>3.1680865158278802E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71">
+        <v>1.15682163256458E-4</v>
+      </c>
+      <c r="C71">
+        <v>1.6863428226001199E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72">
+        <v>1.0122189284940101E-4</v>
+      </c>
+      <c r="C72">
+        <v>2.35839873187779E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="1">
+        <v>8.6761622442343902E-5</v>
+      </c>
+      <c r="C73">
+        <v>2.4368880842098899E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="1">
+        <v>5.7841081628229299E-5</v>
+      </c>
+      <c r="C74">
+        <v>4.6722563578640197E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>2.7052688791657299E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="1">
+        <v>-1.4460270407057299E-5</v>
+      </c>
+      <c r="C85">
+        <v>2.83362272319664E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-2.8920540814114599E-5</v>
+      </c>
+      <c r="C86">
+        <v>2.12521704239748E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="1">
+        <v>-4.3380811221171903E-5</v>
+      </c>
+      <c r="C87">
+        <v>2.07543924436527E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="1">
+        <v>-4.3380811221171903E-5</v>
+      </c>
+      <c r="C88">
+        <v>2.68976577799713E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="1">
+        <v>-7.2301352035264395E-5</v>
+      </c>
+      <c r="C89">
+        <v>6.1858866708718204E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="1">
+        <v>-7.2301352035286594E-5</v>
+      </c>
+      <c r="C90">
+        <v>4.9882693400798701E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="1">
+        <v>-7.2301352035286594E-5</v>
+      </c>
+      <c r="C91">
+        <v>2.3316485426357999E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="1">
+        <v>-7.2301352035286594E-5</v>
+      </c>
+      <c r="C92">
+        <v>1.6487244958415001E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="1">
+        <v>-8.6761622442343902E-5</v>
+      </c>
+      <c r="C93">
+        <v>1.3253056741974E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94">
+        <v>-1.0122189284940101E-4</v>
+      </c>
+      <c r="C94">
+        <v>2.07543924436527E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95">
+        <v>-1.3014243366351501E-4</v>
+      </c>
+      <c r="C95">
+        <v>4.6498258089261202E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>-1.3014243366351501E-4</v>
+      </c>
+      <c r="C96">
+        <v>3.6979862200983401E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97">
+        <v>-1.5906297447763001E-4</v>
+      </c>
+      <c r="C97">
+        <v>2.3936006589903299E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98">
+        <v>-1.5906297447763001E-4</v>
+      </c>
+      <c r="C98">
+        <v>2.0140826082256901E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>-1.87983515291745E-4</v>
+      </c>
+      <c r="C99">
+        <v>3.1215433656169402E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100">
+        <v>-2.0244378569880201E-4</v>
+      </c>
+      <c r="C100">
+        <v>3.2139557184431998E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101">
+        <v>-2.0244378569880201E-4</v>
+      </c>
+      <c r="C101">
+        <v>2.8702817209572899E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102">
+        <v>-2.3136432651291701E-4</v>
+      </c>
+      <c r="C102">
+        <v>2.0140826082256901E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103">
+        <v>-2.4582459691997402E-4</v>
+      </c>
+      <c r="C103">
+        <v>1.41681136159832E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104">
+        <v>-2.60284867327031E-4</v>
+      </c>
+      <c r="C104">
+        <v>2.61086979759506E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105">
+        <v>-2.60284867327031E-4</v>
+      </c>
+      <c r="C105">
+        <v>3.3477946360467901E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106">
+        <v>-2.7474513773408901E-4</v>
+      </c>
+      <c r="C106">
+        <v>3.9706543902094302E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107">
+        <v>-2.89205408141146E-4</v>
+      </c>
+      <c r="C107">
+        <v>2.41966604449169E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108">
+        <v>-3.0366567854820298E-4</v>
+      </c>
+      <c r="C108">
+        <v>2.1153551931644101E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>-4.04887571397605E-4</v>
+      </c>
+      <c r="C109">
+        <v>2.1738553074070701E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110">
+        <v>-4.1934784180466198E-4</v>
+      </c>
+      <c r="C110">
+        <v>2.1153551931644101E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111">
+        <v>-4.3380811221171902E-4</v>
+      </c>
+      <c r="C111">
+        <v>1.5166059549854701E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>-4.6272865302581201E-4</v>
+      </c>
+      <c r="C112">
+        <v>3.3477946360464198E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113">
+        <v>-4.91649193839927E-4</v>
+      </c>
+      <c r="C113">
+        <v>3.7818514440377698E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114">
+        <v>-4.9164919383994901E-4</v>
+      </c>
+      <c r="C114">
+        <v>1.24391949490898E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115">
+        <v>-5.0610946424700599E-4</v>
+      </c>
+      <c r="C115">
+        <v>3.3912340104285001E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116">
+        <v>-5.3503000506112104E-4</v>
+      </c>
+      <c r="C116">
+        <v>2.9493280390965399E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117">
+        <v>-5.3503000506112104E-4</v>
+      </c>
+      <c r="C117">
+        <v>2.8775574784373301E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118">
+        <v>-5.6395054587523501E-4</v>
+      </c>
+      <c r="C118">
+        <v>3.2463226549988802E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B119">
+        <v>-5.7841081628227096E-4</v>
+      </c>
+      <c r="C119">
+        <v>3.4523422417216199E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>-5.7841081628229297E-4</v>
+      </c>
+      <c r="C120" s="1">
+        <v>9.1454780136462601E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121">
+        <v>-6.0733135709638503E-4</v>
+      </c>
+      <c r="C121">
+        <v>2.5295142338998899E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122">
+        <v>-6.5071216831755695E-4</v>
+      </c>
+      <c r="C122">
+        <v>2.5459933282708701E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123">
+        <v>-6.79632709131672E-4</v>
+      </c>
+      <c r="C123">
+        <v>1.9183716522912499E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>-7.0855324994578597E-4</v>
+      </c>
+      <c r="C124">
+        <v>3.1148375719090198E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125">
+        <v>-7.2301352035284404E-4</v>
+      </c>
+      <c r="C125">
+        <v>2.7052688791653098E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126">
+        <v>-7.9531487238808601E-4</v>
+      </c>
+      <c r="C126">
+        <v>3.45234224172139E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127">
+        <v>-7.9531487238813003E-4</v>
+      </c>
+      <c r="C127">
+        <v>1.02249552626182E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128">
+        <v>-8.2423541320222297E-4</v>
+      </c>
+      <c r="C128">
+        <v>3.0193931050277002E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129">
+        <v>-8.9653676523751005E-4</v>
+      </c>
+      <c r="C129">
+        <v>2.9845661832908499E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130">
+        <v>-9.2545730605162401E-4</v>
+      </c>
+      <c r="C130">
+        <v>2.06533972338702E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131">
+        <v>-1.01221892849394E-3</v>
+      </c>
+      <c r="C131">
+        <v>2.2863695034112101E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>84</v>
+      </c>
+      <c r="B132">
+        <v>-1.0700600101221701E-3</v>
+      </c>
+      <c r="C132">
+        <v>3.0810896902118499E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133">
+        <v>-1.0845202805292299E-3</v>
+      </c>
+      <c r="C133">
+        <v>8.0900011456578398E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134">
+        <v>-1.11344082134334E-3</v>
+      </c>
+      <c r="C134">
+        <v>3.8421893588563399E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135">
+        <v>-1.22912298459978E-3</v>
+      </c>
+      <c r="C135">
+        <v>2.9279815966039898E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136">
+        <v>-1.3881859590773901E-3</v>
+      </c>
+      <c r="C136">
+        <v>3.72615103079336E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137">
+        <v>-2.0099775865808299E-3</v>
+      </c>
+      <c r="C137">
+        <v>7.39314469303113E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138">
+        <v>-2.2124213722796598E-3</v>
+      </c>
+      <c r="C138">
+        <v>2.4454536223394698E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>